--- a/inst/extdata/toyFiles/FROC/FrocDataSpC.xlsx
+++ b/inst/extdata/toyFiles/FROC/FrocDataSpC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/FROC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85A4397-60E7-9E4E-8947-773FEC4C967A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7647E194-EFD1-D94D-A787-B65BAFAE63AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20840" yWindow="2960" windowWidth="10000" windowHeight="11440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39100" yWindow="11560" windowWidth="10000" windowHeight="11440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TP" sheetId="3" r:id="rId1"/>
@@ -67,19 +67,19 @@
     <t>FROC</t>
   </si>
   <si>
-    <t>3</t>
+    <t>split-plot-c</t>
   </si>
   <si>
-    <t>4</t>
+    <t>(1)</t>
   </si>
   <si>
-    <t>5</t>
+    <t>(3)</t>
   </si>
   <si>
-    <t>1</t>
+    <t>(4)</t>
   </si>
   <si>
-    <t>split-plot-c</t>
+    <t>(5)</t>
   </si>
 </sst>
 </file>
@@ -6052,8 +6052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F243"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6097,7 +6097,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>8</v>
@@ -6117,13 +6117,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -6137,7 +6137,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>8</v>
@@ -6155,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>8</v>
@@ -6173,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>8</v>
@@ -6191,7 +6191,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>8</v>
@@ -6209,7 +6209,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>8</v>
@@ -6227,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>8</v>
@@ -6245,7 +6245,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>8</v>
@@ -6263,7 +6263,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>8</v>
@@ -6281,7 +6281,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>8</v>
@@ -6299,7 +6299,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>8</v>
@@ -6317,7 +6317,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>8</v>
@@ -6334,7 +6334,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>8</v>
@@ -6351,7 +6351,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>8</v>
@@ -6368,7 +6368,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>8</v>
@@ -6385,7 +6385,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>8</v>
@@ -6402,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>8</v>
@@ -6419,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>8</v>
@@ -6436,7 +6436,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>8</v>
@@ -6470,7 +6470,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>8</v>
@@ -6487,7 +6487,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>8</v>
@@ -6504,7 +6504,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>8</v>
@@ -6521,7 +6521,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>8</v>
@@ -6538,7 +6538,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>8</v>
@@ -6555,7 +6555,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>8</v>
@@ -6572,7 +6572,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>8</v>
@@ -6589,7 +6589,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>8</v>
@@ -6606,7 +6606,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>8</v>
@@ -6623,7 +6623,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>8</v>
@@ -6640,7 +6640,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>8</v>
@@ -6657,7 +6657,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>8</v>
@@ -6674,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>8</v>
@@ -6691,7 +6691,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>8</v>
@@ -6708,7 +6708,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>8</v>
@@ -6725,7 +6725,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>8</v>
@@ -6742,7 +6742,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>8</v>
@@ -6759,7 +6759,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>8</v>
@@ -6776,7 +6776,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>8</v>
@@ -6793,7 +6793,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>8</v>
@@ -6810,7 +6810,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>8</v>
@@ -6827,7 +6827,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>8</v>
@@ -6844,7 +6844,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>8</v>
@@ -6861,7 +6861,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>8</v>
@@ -6878,7 +6878,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>8</v>
@@ -6895,7 +6895,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>8</v>
@@ -6912,7 +6912,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>8</v>
@@ -6929,7 +6929,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>8</v>
@@ -6946,7 +6946,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>8</v>
@@ -6963,7 +6963,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>8</v>
@@ -6980,7 +6980,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>8</v>
@@ -6997,7 +6997,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>8</v>
@@ -7014,7 +7014,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>8</v>
@@ -7031,7 +7031,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>8</v>
@@ -7048,7 +7048,7 @@
         <v>0.5</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>8</v>
@@ -7065,7 +7065,7 @@
         <v>0.5</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>8</v>
@@ -7082,7 +7082,7 @@
         <v>0.5</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>8</v>
@@ -7099,7 +7099,7 @@
         <v>0.5</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>8</v>
@@ -7116,7 +7116,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>8</v>
@@ -7133,7 +7133,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>8</v>
@@ -7150,7 +7150,7 @@
         <v>0.5</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>8</v>
@@ -7167,7 +7167,7 @@
         <v>0.5</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>8</v>
@@ -7184,7 +7184,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>8</v>
@@ -7201,7 +7201,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>8</v>
@@ -7218,7 +7218,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>8</v>
@@ -7235,7 +7235,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>8</v>
@@ -7252,7 +7252,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>8</v>
@@ -7269,7 +7269,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>8</v>
@@ -7286,7 +7286,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>8</v>
@@ -7303,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>8</v>
@@ -7320,7 +7320,7 @@
         <v>0.5</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>8</v>
@@ -7337,7 +7337,7 @@
         <v>0.5</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>8</v>
@@ -7354,7 +7354,7 @@
         <v>0.5</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>8</v>
@@ -7371,7 +7371,7 @@
         <v>0.5</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>8</v>
@@ -7388,7 +7388,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>8</v>
@@ -7405,7 +7405,7 @@
         <v>1</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>8</v>
@@ -7422,7 +7422,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>8</v>
@@ -7439,7 +7439,7 @@
         <v>0.5</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>8</v>
@@ -7456,7 +7456,7 @@
         <v>0.5</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>8</v>
@@ -7473,7 +7473,7 @@
         <v>0.5</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>8</v>
@@ -7490,7 +7490,7 @@
         <v>0.5</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>8</v>
@@ -7507,7 +7507,7 @@
         <v>0.5</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>8</v>
@@ -7524,7 +7524,7 @@
         <v>0.5</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>8</v>
@@ -7541,7 +7541,7 @@
         <v>0.5</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>8</v>
@@ -7558,7 +7558,7 @@
         <v>0.5</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>8</v>
@@ -7575,7 +7575,7 @@
         <v>0.5</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>8</v>
@@ -7592,7 +7592,7 @@
         <v>0.5</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>8</v>
@@ -7609,7 +7609,7 @@
         <v>0.5</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>8</v>
@@ -7626,7 +7626,7 @@
         <v>0.5</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>8</v>
@@ -7643,7 +7643,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>8</v>
@@ -7660,7 +7660,7 @@
         <v>0.5</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         <v>0.5</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>8</v>
@@ -7694,7 +7694,7 @@
         <v>0.5</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>8</v>
@@ -7711,7 +7711,7 @@
         <v>0.5</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>8</v>
@@ -7728,7 +7728,7 @@
         <v>0.5</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>8</v>
@@ -7745,7 +7745,7 @@
         <v>0.5</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>8</v>
@@ -7762,7 +7762,7 @@
         <v>0.5</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>8</v>
@@ -7779,7 +7779,7 @@
         <v>0.5</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>8</v>
@@ -7796,7 +7796,7 @@
         <v>0.33</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>8</v>
@@ -7813,7 +7813,7 @@
         <v>0.33</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>8</v>
@@ -7830,7 +7830,7 @@
         <v>0.33</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>8</v>
@@ -7847,7 +7847,7 @@
         <v>0.5</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>8</v>
@@ -7864,7 +7864,7 @@
         <v>0.5</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>8</v>
@@ -7881,7 +7881,7 @@
         <v>0.5</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>8</v>
@@ -7898,7 +7898,7 @@
         <v>0.5</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>8</v>
@@ -7915,7 +7915,7 @@
         <v>0.5</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>8</v>
@@ -7932,7 +7932,7 @@
         <v>0.5</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>8</v>
@@ -7949,7 +7949,7 @@
         <v>0.5</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>8</v>
@@ -7966,7 +7966,7 @@
         <v>0.5</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>8</v>
@@ -7983,7 +7983,7 @@
         <v>0.5</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>8</v>
@@ -8000,7 +8000,7 @@
         <v>0.5</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>8</v>
@@ -8017,7 +8017,7 @@
         <v>0.33</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>8</v>
@@ -8034,7 +8034,7 @@
         <v>0.33</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>8</v>
@@ -8051,7 +8051,7 @@
         <v>0.33</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>8</v>
@@ -8068,7 +8068,7 @@
         <v>0.33</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E117" s="6" t="s">
         <v>8</v>
@@ -8085,7 +8085,7 @@
         <v>0.33</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>8</v>
@@ -8102,7 +8102,7 @@
         <v>0.33</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E119" s="6" t="s">
         <v>8</v>
@@ -8119,7 +8119,7 @@
         <v>0.33</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>8</v>
@@ -8136,7 +8136,7 @@
         <v>0.33</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>8</v>
@@ -8153,7 +8153,7 @@
         <v>0.33</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>8</v>
@@ -8170,7 +8170,7 @@
         <v>0.33</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>8</v>
@@ -8187,7 +8187,7 @@
         <v>0.33</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E124" s="6" t="s">
         <v>8</v>
@@ -8204,7 +8204,7 @@
         <v>0.33</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>8</v>
@@ -8221,7 +8221,7 @@
         <v>0.33</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>8</v>
@@ -8238,7 +8238,7 @@
         <v>0.33</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>8</v>
@@ -8255,7 +8255,7 @@
         <v>0.33</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>8</v>
@@ -8272,7 +8272,7 @@
         <v>0.33</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>8</v>
@@ -8289,7 +8289,7 @@
         <v>0.33</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E130" s="6" t="s">
         <v>8</v>
@@ -8306,7 +8306,7 @@
         <v>0.33</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>8</v>
@@ -8323,7 +8323,7 @@
         <v>0.33</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>8</v>
@@ -8340,7 +8340,7 @@
         <v>0.33</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>8</v>
@@ -8357,7 +8357,7 @@
         <v>0.33</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>8</v>
@@ -8374,7 +8374,7 @@
         <v>0.33</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E135" s="6" t="s">
         <v>8</v>
@@ -8391,7 +8391,7 @@
         <v>0.33</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>8</v>
@@ -8408,7 +8408,7 @@
         <v>0.33</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>8</v>
@@ -8425,7 +8425,7 @@
         <v>0.33</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E138" s="6" t="s">
         <v>8</v>
@@ -8442,7 +8442,7 @@
         <v>0.33</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>8</v>
@@ -8459,7 +8459,7 @@
         <v>0.33</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E140" s="6" t="s">
         <v>8</v>
@@ -8476,7 +8476,7 @@
         <v>0.33</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E141" s="6" t="s">
         <v>8</v>
@@ -8493,7 +8493,7 @@
         <v>0.33</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         <v>0.33</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E143" s="6" t="s">
         <v>8</v>
@@ -8527,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E144" s="6" t="s">
         <v>8</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E145" s="6" t="s">
         <v>8</v>
@@ -8561,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>8</v>
@@ -8578,7 +8578,7 @@
         <v>0</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E147" s="6" t="s">
         <v>8</v>
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>8</v>
@@ -8612,7 +8612,7 @@
         <v>0</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E149" s="6" t="s">
         <v>8</v>
@@ -8629,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E150" s="6" t="s">
         <v>8</v>
@@ -8646,7 +8646,7 @@
         <v>0</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E151" s="6" t="s">
         <v>8</v>
@@ -8663,7 +8663,7 @@
         <v>0</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>8</v>
@@ -8680,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>8</v>
@@ -8697,7 +8697,7 @@
         <v>0</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>8</v>
@@ -8714,7 +8714,7 @@
         <v>0</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E155" s="6" t="s">
         <v>8</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E156" s="6" t="s">
         <v>8</v>
@@ -8748,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E157" s="6" t="s">
         <v>8</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>8</v>
@@ -8782,7 +8782,7 @@
         <v>0</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E159" s="6" t="s">
         <v>8</v>
@@ -8799,7 +8799,7 @@
         <v>0</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>8</v>
@@ -8816,7 +8816,7 @@
         <v>0</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E161" s="6" t="s">
         <v>8</v>
@@ -8833,7 +8833,7 @@
         <v>0</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E162" s="6" t="s">
         <v>8</v>
@@ -8850,7 +8850,7 @@
         <v>0</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E163" s="6" t="s">
         <v>8</v>
@@ -8867,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E164" s="6" t="s">
         <v>8</v>
@@ -8884,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>8</v>
@@ -8918,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E167" s="6" t="s">
         <v>8</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E168" s="6" t="s">
         <v>8</v>
@@ -8952,7 +8952,7 @@
         <v>0</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E169" s="6" t="s">
         <v>8</v>
@@ -8969,7 +8969,7 @@
         <v>0</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>8</v>
@@ -8986,7 +8986,7 @@
         <v>0</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E171" s="6" t="s">
         <v>8</v>
@@ -9003,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E172" s="6" t="s">
         <v>8</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E173" s="6" t="s">
         <v>8</v>
@@ -9037,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E174" s="6" t="s">
         <v>8</v>
@@ -9054,7 +9054,7 @@
         <v>0</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E175" s="6" t="s">
         <v>8</v>
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E176" s="6" t="s">
         <v>8</v>
@@ -9088,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E177" s="6" t="s">
         <v>8</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E178" s="6" t="s">
         <v>8</v>
@@ -9122,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E179" s="6" t="s">
         <v>8</v>
@@ -9139,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>8</v>
@@ -9156,7 +9156,7 @@
         <v>0</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E181" s="6" t="s">
         <v>8</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E182" s="6" t="s">
         <v>8</v>
@@ -9190,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E183" s="6" t="s">
         <v>8</v>
@@ -9207,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E184" s="6" t="s">
         <v>8</v>
@@ -9224,7 +9224,7 @@
         <v>0</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>8</v>
@@ -9241,7 +9241,7 @@
         <v>0</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>8</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E187" s="6" t="s">
         <v>8</v>
@@ -9275,7 +9275,7 @@
         <v>0</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E188" s="6" t="s">
         <v>8</v>
@@ -9292,7 +9292,7 @@
         <v>0</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E189" s="6" t="s">
         <v>8</v>
@@ -9309,7 +9309,7 @@
         <v>0</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E190" s="6" t="s">
         <v>8</v>
@@ -9326,7 +9326,7 @@
         <v>0</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E191" s="6" t="s">
         <v>8</v>
@@ -9343,7 +9343,7 @@
         <v>0</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E192" s="6" t="s">
         <v>8</v>
@@ -9360,7 +9360,7 @@
         <v>0</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E193" s="6" t="s">
         <v>8</v>
@@ -9377,7 +9377,7 @@
         <v>0</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E194" s="6" t="s">
         <v>8</v>
@@ -9394,7 +9394,7 @@
         <v>0</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E195" s="6" t="s">
         <v>8</v>
@@ -9411,7 +9411,7 @@
         <v>0</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E196" s="6" t="s">
         <v>8</v>
@@ -9428,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E197" s="6" t="s">
         <v>8</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E198" s="6" t="s">
         <v>8</v>
@@ -9462,7 +9462,7 @@
         <v>0</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E199" s="6" t="s">
         <v>8</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E200" s="6" t="s">
         <v>8</v>
@@ -9496,7 +9496,7 @@
         <v>0</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E201" s="6" t="s">
         <v>8</v>
@@ -9513,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E202" s="6" t="s">
         <v>8</v>
@@ -9530,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E203" s="6" t="s">
         <v>8</v>
@@ -9547,7 +9547,7 @@
         <v>0</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E204" s="6" t="s">
         <v>8</v>
@@ -9564,7 +9564,7 @@
         <v>0</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E205" s="6" t="s">
         <v>8</v>
@@ -9581,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E206" s="6" t="s">
         <v>8</v>
@@ -9598,7 +9598,7 @@
         <v>0</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E207" s="6" t="s">
         <v>8</v>
@@ -9615,7 +9615,7 @@
         <v>0</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E208" s="6" t="s">
         <v>8</v>
@@ -9632,7 +9632,7 @@
         <v>0</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E209" s="6" t="s">
         <v>8</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E210" s="6" t="s">
         <v>8</v>
@@ -9666,7 +9666,7 @@
         <v>0</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E211" s="6" t="s">
         <v>8</v>
@@ -9683,7 +9683,7 @@
         <v>0</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E212" s="6" t="s">
         <v>8</v>
@@ -9700,7 +9700,7 @@
         <v>0</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E213" s="6" t="s">
         <v>8</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E214" s="6" t="s">
         <v>8</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E215" s="6" t="s">
         <v>8</v>
@@ -9751,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E216" s="6" t="s">
         <v>8</v>
@@ -9768,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E217" s="6" t="s">
         <v>8</v>
@@ -9785,7 +9785,7 @@
         <v>0</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E218" s="6" t="s">
         <v>8</v>
@@ -9802,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E219" s="6" t="s">
         <v>8</v>
@@ -9819,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E220" s="6" t="s">
         <v>8</v>
@@ -9836,7 +9836,7 @@
         <v>0</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E221" s="6" t="s">
         <v>8</v>
@@ -9853,7 +9853,7 @@
         <v>0</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E222" s="6" t="s">
         <v>8</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E223" s="6" t="s">
         <v>8</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E224" s="6" t="s">
         <v>8</v>
@@ -9904,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E225" s="6" t="s">
         <v>8</v>
@@ -9921,7 +9921,7 @@
         <v>0</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E226" s="6" t="s">
         <v>8</v>
@@ -9938,7 +9938,7 @@
         <v>0</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E227" s="6" t="s">
         <v>8</v>
@@ -9955,7 +9955,7 @@
         <v>0</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E228" s="6" t="s">
         <v>8</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E229" s="6" t="s">
         <v>8</v>
@@ -9989,7 +9989,7 @@
         <v>0</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E230" s="6" t="s">
         <v>8</v>
@@ -10006,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E231" s="6" t="s">
         <v>8</v>
@@ -10023,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E232" s="6" t="s">
         <v>8</v>
@@ -10040,7 +10040,7 @@
         <v>0</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E233" s="6" t="s">
         <v>8</v>
@@ -10057,7 +10057,7 @@
         <v>0</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E234" s="6" t="s">
         <v>8</v>
@@ -10074,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E235" s="6" t="s">
         <v>8</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E236" s="6" t="s">
         <v>8</v>
@@ -10108,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E237" s="6" t="s">
         <v>8</v>
@@ -10125,7 +10125,7 @@
         <v>0</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E238" s="6" t="s">
         <v>8</v>
@@ -10142,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E239" s="6" t="s">
         <v>8</v>
@@ -10159,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E240" s="6" t="s">
         <v>8</v>
@@ -10176,7 +10176,7 @@
         <v>0</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E241" s="6" t="s">
         <v>8</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E242" s="6" t="s">
         <v>8</v>
@@ -10210,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E243" s="6" t="s">
         <v>8</v>
